--- a/oresat0-plusz-end-card-BOM.xlsx
+++ b/oresat0-plusz-end-card-BOM.xlsx
@@ -241,11 +241,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV1048576"/>
+  <dimension ref="A1:IW1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -259,13 +259,14 @@
     <col min="7" max="7" style="1" width="9.130879807692308" customWidth="1"/>
     <col min="8" max="8" style="2" width="12.284975961538462" customWidth="1"/>
     <col min="9" max="9" style="2" width="16.570432692307694" customWidth="1"/>
-    <col min="10" max="11" style="3" width="8.709952724358974" customWidth="1"/>
-    <col min="12" max="26" style="2" width="8.709952724358974" customWidth="1"/>
-    <col min="27" max="256" style="2" width="9.142307692307693"/>
-    <col min="257" max="16384" style="0" width="9.142307692307693"/>
+    <col min="10" max="10" style="2" width="9.142307692307693"/>
+    <col min="11" max="12" style="3" width="8.709952724358974" customWidth="1"/>
+    <col min="13" max="27" style="2" width="8.709952724358974" customWidth="1"/>
+    <col min="28" max="257" style="2" width="9.142307692307693"/>
+    <col min="258" max="16384" style="0" width="9.142307692307693"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" customHeight="1" ht="12.75">
+    <row r="1" spans="1:257" customHeight="1" ht="12.75">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>Bill Of Materials for OreSat0 +Z End Card and Mezzanine</t>
@@ -279,7 +280,7 @@
       <c r="G1" s="5"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:256" customHeight="1" ht="12.75">
+    <row r="2" spans="1:257" customHeight="1" ht="12.75">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
@@ -289,7 +290,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:256" customHeight="1" ht="12.75">
+    <row r="3" spans="1:257" customHeight="1" ht="12.75">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>Last modified: 2021/11/01</t>
@@ -303,7 +304,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:256" customHeight="1" ht="12.75">
+    <row r="4" spans="1:257" customHeight="1" ht="12.75">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>PCB version: 2.0</t>
@@ -325,7 +326,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:256" customHeight="1" ht="12.75">
+    <row r="5" spans="1:257" customHeight="1" ht="12.75">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>BOM revision: 0</t>
@@ -347,7 +348,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:256" customHeight="1" ht="12.75">
+    <row r="6" spans="1:257" customHeight="1" ht="12.75">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5"/>
@@ -357,7 +358,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:256">
+    <row r="7" spans="1:257">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="inlineStr">
         <is>
@@ -371,7 +372,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:256" customHeight="1" ht="12.75">
+    <row r="8" spans="1:257" customHeight="1" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
@@ -399,14 +400,19 @@
       <c r="I8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>Stock</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:256" ht="13.5">
+    <row r="9" spans="1:257" ht="13.5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -443,14 +449,17 @@
         </is>
       </c>
       <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9">
         <v>1.74</v>
       </c>
-      <c r="K9">
-        <f>A9*J9</f>
+      <c r="L9">
+        <f>A9*K9</f>
         <v>1.74</v>
       </c>
     </row>
-    <row r="10" spans="1:256">
+    <row r="10" spans="1:257">
       <c r="A10">
         <v>3</v>
       </c>
@@ -489,14 +498,17 @@
         </is>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>16.41</v>
       </c>
-      <c r="K10">
-        <f>A10*J10</f>
+      <c r="L10">
+        <f>A10*K10</f>
         <v>49.230000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:256">
+    <row r="11" spans="1:257">
       <c r="A11">
         <v>4</v>
       </c>
@@ -529,14 +541,17 @@
         <v>16</v>
       </c>
       <c r="J11">
+        <v>24</v>
+      </c>
+      <c r="K11">
         <v>0.56200000000000006</v>
       </c>
-      <c r="K11">
-        <f>A11*J11</f>
+      <c r="L11">
+        <f>A11*K11</f>
         <v>2.2480000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:256" ht="13.5">
+    <row r="12" spans="1:257" ht="13.5">
       <c r="A12">
         <v>4</v>
       </c>
@@ -573,14 +588,17 @@
         </is>
       </c>
       <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12">
         <v>1.46</v>
       </c>
-      <c r="K12">
-        <f>A12*J12</f>
+      <c r="L12">
+        <f>A12*K12</f>
         <v>5.8399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:256" ht="13.5">
+    <row r="13" spans="1:257" ht="13.5">
       <c r="A13">
         <v>1</v>
       </c>
@@ -619,14 +637,17 @@
         </is>
       </c>
       <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
         <v>10.119999999999999</v>
       </c>
-      <c r="K13">
-        <f>A13*J13</f>
+      <c r="L13">
+        <f>A13*K13</f>
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:256" ht="13.5">
+    <row r="14" spans="1:257" ht="13.5">
       <c r="A14">
         <v>3</v>
       </c>
@@ -657,14 +678,17 @@
         <v>20</v>
       </c>
       <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14">
         <v>1.8400000000000001</v>
       </c>
-      <c r="K14">
-        <f>A14*J14</f>
+      <c r="L14">
+        <f>A14*K14</f>
         <v>5.5200000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:256" ht="13.5">
+    <row r="15" spans="1:257" ht="13.5">
       <c r="A15">
         <v>1</v>
       </c>
@@ -703,14 +727,17 @@
         </is>
       </c>
       <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
         <v>0.77000000000000002</v>
       </c>
-      <c r="K15">
-        <f>A15*J15</f>
+      <c r="L15">
+        <f>A15*K15</f>
         <v>0.77000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:256" ht="13.5">
+    <row r="16" spans="1:257" ht="13.5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -739,14 +766,17 @@
         <v>26</v>
       </c>
       <c r="J16">
+        <v>7</v>
+      </c>
+      <c r="K16">
         <v>13.949999999999999</v>
       </c>
-      <c r="K16">
-        <f>A16*J16</f>
+      <c r="L16">
+        <f>A16*K16</f>
         <v>41.849999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:256">
+    <row r="18" spans="1:257">
       <c r="A18" s="0"/>
       <c r="B18" s="5" t="inlineStr">
         <is>
@@ -754,7 +784,7 @@
         </is>
       </c>
     </row>
-    <row r="19" spans="1:256">
+    <row r="19" spans="1:257">
       <c r="A19" s="5" t="s">
         <v>0</v>
       </c>
@@ -782,14 +812,15 @@
       <c r="I19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="4"/>
+      <c r="K19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:256">
+    <row r="20" spans="1:257">
       <c r="A20">
         <v>10</v>
       </c>
@@ -828,14 +859,17 @@
         </is>
       </c>
       <c r="J20">
+        <v>29</v>
+      </c>
+      <c r="K20">
         <v>5.1500000000000004</v>
       </c>
-      <c r="K20">
-        <f>A20*J20</f>
+      <c r="L20">
+        <f>A20*K20</f>
         <v>51.5</v>
       </c>
     </row>
-    <row r="21" spans="1:256">
+    <row r="21" spans="1:257">
       <c r="A21">
         <v>6</v>
       </c>
@@ -866,14 +900,17 @@
         <v>20</v>
       </c>
       <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21">
         <v>1.8400000000000001</v>
       </c>
-      <c r="K21">
-        <f>A21*J21</f>
+      <c r="L21">
+        <f>A21*K21</f>
         <v>11.040000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:256">
+    <row r="22" spans="1:257">
       <c r="A22">
         <v>3</v>
       </c>
@@ -904,14 +941,17 @@
         <v>27</v>
       </c>
       <c r="J22">
+        <v>8</v>
+      </c>
+      <c r="K22">
         <v>6.9500000000000002</v>
       </c>
-      <c r="K22">
-        <f>A22*J22</f>
+      <c r="L22">
+        <f>A22*K22</f>
         <v>20.850000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:256">
+    <row r="23" spans="1:257">
       <c r="A23">
         <v>3</v>
       </c>
@@ -942,14 +982,17 @@
         <v>26</v>
       </c>
       <c r="J23">
+        <v>7</v>
+      </c>
+      <c r="K23">
         <v>13.949999999999999</v>
       </c>
-      <c r="K23">
-        <f>A23*J23</f>
+      <c r="L23">
+        <f>A23*K23</f>
         <v>41.849999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:256" customHeight="1" ht="12.75">
+    <row r="24" spans="1:257" customHeight="1" ht="12.75">
       <c r="A24" s="0"/>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -959,8 +1002,9 @@
       <c r="G24" s="0"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
-    </row>
-    <row r="25" spans="1:256" ht="13.5">
+      <c r="J24" s="0"/>
+    </row>
+    <row r="25" spans="1:257" ht="13.5">
       <c r="A25" s="0"/>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
@@ -974,12 +1018,13 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="K25">
-        <f>SUM(K9:K23)</f>
+      <c r="J25" s="9"/>
+      <c r="L25">
+        <f>SUM(L9:L23)</f>
         <v>242.55799999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:256">
+    <row r="26" spans="1:257">
       <c r="A26" s="0"/>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
@@ -989,9 +1034,9 @@
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
-      <c r="J26" s="10"/>
+      <c r="J26" s="0"/>
       <c r="K26" s="10"/>
-      <c r="L26" s="0"/>
+      <c r="L26" s="10"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
@@ -1236,17 +1281,18 @@
       <c r="IT26" s="0"/>
       <c r="IU26" s="0"/>
       <c r="IV26" s="0"/>
-    </row>
-    <row r="65532" spans="1:256">
+      <c r="IW26" s="0"/>
+    </row>
+    <row r="65532" spans="1:257">
       <c r="A65532" s="2"/>
     </row>
-    <row r="65533" spans="1:256">
+    <row r="65533" spans="1:257">
       <c r="A65533" s="2"/>
     </row>
-    <row r="65534" spans="1:256">
+    <row r="65534" spans="1:257">
       <c r="A65534" s="2"/>
     </row>
-    <row r="1048575" spans="1:256">
+    <row r="1048575" spans="1:257">
       <c r="A1048575" s="0"/>
       <c r="B1048575" s="0"/>
       <c r="C1048575" s="0"/>
@@ -1256,9 +1302,9 @@
       <c r="G1048575" s="0"/>
       <c r="H1048575" s="0"/>
       <c r="I1048575" s="0"/>
-      <c r="J1048575" s="10"/>
+      <c r="J1048575" s="0"/>
       <c r="K1048575" s="10"/>
-      <c r="L1048575" s="0"/>
+      <c r="L1048575" s="10"/>
       <c r="M1048575" s="0"/>
       <c r="N1048575" s="0"/>
       <c r="O1048575" s="0"/>
@@ -1503,8 +1549,9 @@
       <c r="IT1048575" s="0"/>
       <c r="IU1048575" s="0"/>
       <c r="IV1048575" s="0"/>
-    </row>
-    <row r="1048576" spans="1:256">
+      <c r="IW1048575" s="0"/>
+    </row>
+    <row r="1048576" spans="1:257">
       <c r="A1048576" s="0"/>
       <c r="B1048576" s="0"/>
       <c r="C1048576" s="0"/>
@@ -1514,9 +1561,9 @@
       <c r="G1048576" s="0"/>
       <c r="H1048576" s="0"/>
       <c r="I1048576" s="0"/>
-      <c r="J1048576" s="10"/>
+      <c r="J1048576" s="0"/>
       <c r="K1048576" s="10"/>
-      <c r="L1048576" s="0"/>
+      <c r="L1048576" s="10"/>
       <c r="M1048576" s="0"/>
       <c r="N1048576" s="0"/>
       <c r="O1048576" s="0"/>
@@ -1761,6 +1808,7 @@
       <c r="IT1048576" s="0"/>
       <c r="IU1048576" s="0"/>
       <c r="IV1048576" s="0"/>
+      <c r="IW1048576" s="0"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
